--- a/biology/Médecine/François-Guy_Hourtoulle/François-Guy_Hourtoulle.xlsx
+++ b/biology/Médecine/François-Guy_Hourtoulle/François-Guy_Hourtoulle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Guy_Hourtoulle</t>
+          <t>François-Guy_Hourtoulle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Guy Hourtoulle, né le 20 septembre 1925 à Angoulême (Charente) et mort le 30 janvier 2009 à Paris, est un chirurgien et essayiste français dans le domaine de l'histoire, particulièrement la Révolution et l'Empire ainsi que la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Guy_Hourtoulle</t>
+          <t>François-Guy_Hourtoulle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Marie Guy Hourtoulle est élève au collège Stanislas et à la faculté de médecine de Paris[1]. Après ses études, il est chirurgien à l'institut Gustave-Roussy de Villejuif puis chef du département de chirurgie du centre anticancéreux Centre Henri-Becquerel de Rouen[2]. C'est un écrivain et essayiste, auteur d'ouvrages d'anatomie et d'ouvrages consacrés à l'histoire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Marie Guy Hourtoulle est élève au collège Stanislas et à la faculté de médecine de Paris. Après ses études, il est chirurgien à l'institut Gustave-Roussy de Villejuif puis chef du département de chirurgie du centre anticancéreux Centre Henri-Becquerel de Rouen. C'est un écrivain et essayiste, auteur d'ouvrages d'anatomie et d'ouvrages consacrés à l'histoire.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Guy_Hourtoulle</t>
+          <t>François-Guy_Hourtoulle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le passage de la Bérézina, une victoire dans la déroute, Paris, Histoire &amp; Collections (2012)
 (en) The crossing of Berezina, a victory during the defeat, Paris, Histoire &amp; Collections (2012)
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Guy_Hourtoulle</t>
+          <t>François-Guy_Hourtoulle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,12 +615,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur en 2002[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur en 2002.
  Chevalier de la Légion d'honneur le 18 septembre 1981,
  Croix de guerre 1939-1945
-médaille coloniale[4].</t>
+médaille coloniale.</t>
         </is>
       </c>
     </row>
